--- a/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-90000-5000@zero.ssm.data-SIDE.xlsx
+++ b/zero-ambient/src/main/resources/plugin/ambient/oob/menu/APP-90000-5000@zero.ssm.data-SIDE.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/menu/zero-ambient/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-extension/zero-ambient/src/main/resources/plugin/ambient/oob/menu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0563333-5F86-A145-8336-68C4EF976FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6073AF-8639-3A4A-89CA-395FD5BE6941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-71760" yWindow="4940" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-51880" yWindow="-480" windowWidth="38400" windowHeight="18080" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-MENU" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>{TABLE}</t>
   </si>
@@ -101,13 +101,28 @@
   </si>
   <si>
     <t>zero.ssm.data</t>
+  </si>
+  <si>
+    <t>43ed653e-900d-4b96-b665-91215de11af8</t>
+  </si>
+  <si>
+    <t>zero.ssm.tag</t>
+  </si>
+  <si>
+    <t>标签管理</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>/system/tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,8 +169,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +209,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -251,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,7 +316,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -296,6 +325,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,15 +604,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A2:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="55.33203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -681,6 +713,27 @@
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:G2"/>
